--- a/data.xlsx
+++ b/data.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="177">
   <si>
     <t>Q11_理美容院への相談経験_薄毛_女性</t>
   </si>
@@ -107,192 +107,192 @@
     <t>60代</t>
   </si>
   <si>
+    <t>Q11_理美容院への相談経験_薄毛_男性</t>
+  </si>
+  <si>
+    <t>Q13_理美容室への相談意向_薄毛_女性</t>
+  </si>
+  <si>
+    <t>とてもそう思う</t>
+  </si>
+  <si>
+    <t>そう思う</t>
+  </si>
+  <si>
+    <t>どちらともいえない</t>
+  </si>
+  <si>
+    <t>あまりそう思わない</t>
+  </si>
+  <si>
+    <t>そう思わない</t>
+  </si>
+  <si>
+    <t>Q13_理美容室への相談意向_薄毛_男性</t>
+  </si>
+  <si>
+    <t>Q14_相談できていない理由_薄毛_女性</t>
+  </si>
+  <si>
+    <t>言い出すのが恥ずかしいため（勇気が出ない）</t>
+  </si>
+  <si>
+    <t>相談していいアドバイスがもらえるか分からないため</t>
+  </si>
+  <si>
+    <t>商品（シャンプー・トリートメント・ドライヤーなど）を売りつけられそうな気がするため</t>
+  </si>
+  <si>
+    <t>追加のメニュー（施術）を勧められそうな気がするため</t>
+  </si>
+  <si>
+    <t>施術時間が短時間なので、言い出すタイミングが難しいため</t>
+  </si>
+  <si>
+    <t>周囲のお客さんに聞かれると恥ずかしいため</t>
+  </si>
+  <si>
+    <t>担当してくれているスタッフが異性のため</t>
+  </si>
+  <si>
+    <t>美容師・理容師側から話してくれるのを待っているため</t>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>Q14_相談できていない理由_薄毛_男性</t>
+  </si>
+  <si>
+    <t>Q15_相談したくない理由_薄毛_女性</t>
+  </si>
+  <si>
+    <t>美容室・理容室で相談することで はないと思ったため</t>
+  </si>
+  <si>
+    <t>悩みを言えるほど親しくないため</t>
+  </si>
+  <si>
+    <t>相談してもいいアドバイスがもらえないと思うため</t>
+  </si>
+  <si>
+    <t>言い出すのが恥ずかしいため</t>
+  </si>
+  <si>
+    <t>自分の悩みや気持ちはわかってもらえないと思うため</t>
+  </si>
+  <si>
+    <t>他に自分で実行している対処法で十分だと思うため</t>
+  </si>
+  <si>
+    <t>過去に相談して、嫌な思いをしたことがあるため</t>
+  </si>
+  <si>
+    <t>Q15_相談したくない理由_薄毛_男性</t>
+  </si>
+  <si>
+    <t>Q16_どうすれば相談したくなるか(したくないベース)_薄毛_女性</t>
+  </si>
+  <si>
+    <t>育毛促進や髪のボリュームアップ対策のメニューやクーポンがあれば</t>
+  </si>
+  <si>
+    <t>カウンセリングや施術中などに、髪の悩みについて聞いてくれれば</t>
+  </si>
+  <si>
+    <t>カウンセリングシートに記入欄があれば</t>
+  </si>
+  <si>
+    <t>商品・メニューを売り込む勧誘がなければ</t>
+  </si>
+  <si>
+    <t>施術中にスタイリスト側から話しかけてくれれば</t>
+  </si>
+  <si>
+    <t>店内にチラシやPOPがあって話すきっかけがあれば</t>
+  </si>
+  <si>
+    <t>スタイリストとは別に、美容の悩みを相談できるスタッフ（ビューティ・コーディネーターなど）がいるサロンであれば</t>
+  </si>
+  <si>
+    <t>同性の美容師・理容師であれば</t>
+  </si>
+  <si>
+    <t>（ネット予約のときなど）事前に悩みを伝えることができれば</t>
+  </si>
+  <si>
+    <t>どんな状況でも相談したくない</t>
+  </si>
+  <si>
+    <t>Q16_どうすれば相談したくなるか(したくないベース)_薄毛_男性</t>
+  </si>
+  <si>
+    <t>Q17_試したことのあるボリュームアップのための施術_薄毛_女性</t>
+  </si>
+  <si>
+    <t>髪がボリュームアップしてみえるような髪型（カット）※1</t>
+  </si>
+  <si>
+    <t>ヘッドスパ・ヘッドマッサージ</t>
+  </si>
+  <si>
+    <t>育毛促進や髪のボリュームアップにつながるシャンプー・トリートメントなどの商品購入 ※3</t>
+  </si>
+  <si>
+    <t>美容師・理容師からのアドバイス</t>
+  </si>
+  <si>
+    <t>毛量不足を、ボリュームアップできるようなパーマ ※2</t>
+  </si>
+  <si>
+    <t>頭皮や髪の診断</t>
+  </si>
+  <si>
+    <t>Q17_試したことのあるボリュームアップのための施術_薄毛_男性</t>
+  </si>
+  <si>
+    <t>Q20S1_理美容院でやってみたいこと(自発ベース)_薄毛_女性</t>
+  </si>
+  <si>
+    <t>特にない</t>
+  </si>
+  <si>
+    <t>Q20S1_理美容院でやってみたいこと(自発ベース)_薄毛_男性</t>
+  </si>
+  <si>
+    <t>Q21S1_理美容院でかけてよい金額(自発ベース)_ボリュームアップパーマ_薄毛_女性</t>
+  </si>
+  <si>
+    <t>&lt;2000</t>
+  </si>
+  <si>
+    <t>&lt;3000</t>
+  </si>
+  <si>
+    <t>&lt;4000</t>
+  </si>
+  <si>
+    <t>&lt;5000</t>
+  </si>
+  <si>
+    <t>5000&lt;</t>
+  </si>
+  <si>
+    <t>いくらでも</t>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>Q21S1_理美容院でかけてよい金額(自発ベース)_ボリュームアップパーマ_薄毛_男性</t>
+  </si>
+  <si>
     <t>2024年</t>
   </si>
   <si>
-    <t>Q11_理美容院への相談経験_薄毛_男性</t>
-  </si>
-  <si>
-    <t>Q13_理美容室への相談意向_薄毛_女性</t>
-  </si>
-  <si>
-    <t>とてもそう思う</t>
-  </si>
-  <si>
-    <t>そう思う</t>
-  </si>
-  <si>
-    <t>どちらともいえない</t>
-  </si>
-  <si>
-    <t>あまりそう思わない</t>
-  </si>
-  <si>
-    <t>そう思わない</t>
-  </si>
-  <si>
-    <t>Q13_理美容室への相談意向_薄毛_男性</t>
-  </si>
-  <si>
-    <t>Q14_相談できていない理由_薄毛_女性</t>
-  </si>
-  <si>
-    <t>言い出すのが恥ずかしいため（勇気が出ない）</t>
-  </si>
-  <si>
-    <t>相談していいアドバイスがもらえるか分からないため</t>
-  </si>
-  <si>
-    <t>商品（シャンプー・トリートメント・ドライヤーなど）を売りつけられそうな気がするため</t>
-  </si>
-  <si>
-    <t>追加のメニュー（施術）を勧められそうな気がするため</t>
-  </si>
-  <si>
-    <t>施術時間が短時間なので、言い出すタイミングが難しいため</t>
-  </si>
-  <si>
-    <t>周囲のお客さんに聞かれると恥ずかしいため</t>
-  </si>
-  <si>
-    <t>担当してくれているスタッフが異性のため</t>
-  </si>
-  <si>
-    <t>美容師・理容師側から話してくれるのを待っているため</t>
-  </si>
-  <si>
-    <t>その他</t>
-  </si>
-  <si>
-    <t>Q14_相談できていない理由_薄毛_男性</t>
-  </si>
-  <si>
-    <t>Q15_相談したくない理由_薄毛_女性</t>
-  </si>
-  <si>
-    <t>美容室・理容室で相談することで はないと思ったため</t>
-  </si>
-  <si>
-    <t>悩みを言えるほど親しくないため</t>
-  </si>
-  <si>
-    <t>相談してもいいアドバイスがもらえないと思うため</t>
-  </si>
-  <si>
-    <t>言い出すのが恥ずかしいため</t>
-  </si>
-  <si>
-    <t>自分の悩みや気持ちはわかってもらえないと思うため</t>
-  </si>
-  <si>
-    <t>他に自分で実行している対処法で十分だと思うため</t>
-  </si>
-  <si>
-    <t>過去に相談して、嫌な思いをしたことがあるため</t>
-  </si>
-  <si>
-    <t>Q15_相談したくない理由_薄毛_男性</t>
-  </si>
-  <si>
-    <t>Q16_どうすれば相談したくなるか(したくないベース)_薄毛_女性</t>
-  </si>
-  <si>
-    <t>育毛促進や髪のボリュームアップ対策のメニューやクーポンがあれば</t>
-  </si>
-  <si>
-    <t>カウンセリングや施術中などに、髪の悩みについて聞いてくれれば</t>
-  </si>
-  <si>
-    <t>カウンセリングシートに記入欄があれば</t>
-  </si>
-  <si>
-    <t>商品・メニューを売り込む勧誘がなければ</t>
-  </si>
-  <si>
-    <t>施術中にスタイリスト側から話しかけてくれれば</t>
-  </si>
-  <si>
-    <t>店内にチラシやPOPがあって話すきっかけがあれば</t>
-  </si>
-  <si>
-    <t>スタイリストとは別に、美容の悩みを相談できるスタッフ（ビューティ・コーディネーターなど）がいるサロンであれば</t>
-  </si>
-  <si>
-    <t>同性の美容師・理容師であれば</t>
-  </si>
-  <si>
-    <t>（ネット予約のときなど）事前に悩みを伝えることができれば</t>
-  </si>
-  <si>
-    <t>どんな状況でも相談したくない</t>
-  </si>
-  <si>
-    <t>Q16_どうすれば相談したくなるか(したくないベース)_薄毛_男性</t>
-  </si>
-  <si>
-    <t>Q17_試したことのあるボリュームアップのための施術_薄毛_女性</t>
-  </si>
-  <si>
-    <t>髪がボリュームアップしてみえるような髪型（カット）※1</t>
-  </si>
-  <si>
-    <t>ヘッドスパ・ヘッドマッサージ</t>
-  </si>
-  <si>
-    <t>育毛促進や髪のボリュームアップにつながるシャンプー・トリートメントなどの商品購入 ※3</t>
-  </si>
-  <si>
-    <t>美容師・理容師からのアドバイス</t>
-  </si>
-  <si>
-    <t>毛量不足を、ボリュームアップできるようなパーマ ※2</t>
-  </si>
-  <si>
-    <t>頭皮や髪の診断</t>
-  </si>
-  <si>
-    <t>Q17_試したことのあるボリュームアップのための施術_薄毛_男性</t>
-  </si>
-  <si>
-    <t>Q20S1_理美容院でやってみたいこと(自発ベース)_薄毛_女性</t>
-  </si>
-  <si>
-    <t>特にない</t>
-  </si>
-  <si>
-    <t>Q20S1_理美容院でやってみたいこと(自発ベース)_薄毛_男性</t>
-  </si>
-  <si>
-    <t>Q21S1_理美容院でかけてよい金額(自発ベース)_ボリュームアップパーマ_薄毛_女性</t>
-  </si>
-  <si>
-    <t>&lt;2000</t>
-  </si>
-  <si>
-    <t>&lt;3000</t>
-  </si>
-  <si>
-    <t>&lt;4000</t>
-  </si>
-  <si>
-    <t>&lt;5000</t>
-  </si>
-  <si>
-    <t>5000&lt;</t>
-  </si>
-  <si>
-    <t>いくらでも</t>
-  </si>
-  <si>
-    <t>平均</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>Q21S1_理美容院でかけてよい金額(自発ベース)_ボリュームアップパーマ_薄毛_男性</t>
-  </si>
-  <si>
     <t>378円</t>
   </si>
   <si>
@@ -306,9 +306,6 @@
   </si>
   <si>
     <t>225円</t>
-  </si>
-  <si>
-    <t>487円</t>
   </si>
   <si>
     <t>Q21S2_理美容院でかけてよい金額(自発ベース)_ヘッドスパマッサージ_薄毛_女性</t>
@@ -1224,20 +1221,6 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>561.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45.2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>54.8</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1255,43 +1238,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -1497,47 +1480,6 @@
       </c>
       <c r="M6" s="2">
         <v>52.8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>612.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>12.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>9.8</v>
-      </c>
-      <c r="E7" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="F7" s="2">
-        <v>8.7</v>
-      </c>
-      <c r="G7" s="2">
-        <v>9.2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="K7" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="L7" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="M7" s="2">
-        <v>57.4</v>
       </c>
     </row>
   </sheetData>
@@ -1557,31 +1499,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -1727,35 +1669,6 @@
       </c>
       <c r="I6" s="2">
         <v>5.9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>96.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>64.6</v>
-      </c>
-      <c r="D7" s="2">
-        <v>41.6</v>
-      </c>
-      <c r="E7" s="2">
-        <v>27.1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>41.7</v>
-      </c>
-      <c r="G7" s="2">
-        <v>29.2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>16.7</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4.2</v>
       </c>
     </row>
   </sheetData>
@@ -1775,31 +1688,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -1945,35 +1858,6 @@
       </c>
       <c r="I6" s="2">
         <v>8.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>152.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>63.2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>53.3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>52.6</v>
-      </c>
-      <c r="F7" s="2">
-        <v>36.2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>42.1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>31.6</v>
-      </c>
-      <c r="I7" s="2">
-        <v>3.9</v>
       </c>
     </row>
   </sheetData>
@@ -1993,34 +1877,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -2181,38 +2065,6 @@
       </c>
       <c r="J6" s="2">
         <v>20.2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>561.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>52.8</v>
-      </c>
-      <c r="D7" s="2">
-        <v>58.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>30.9</v>
-      </c>
-      <c r="F7" s="2">
-        <v>26.5</v>
-      </c>
-      <c r="G7" s="2">
-        <v>26.2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>21.5</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>14.6</v>
       </c>
     </row>
   </sheetData>
@@ -2232,34 +2084,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -2420,38 +2272,6 @@
       </c>
       <c r="J6" s="2">
         <v>37.4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1504.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>39.7</v>
-      </c>
-      <c r="D7" s="2">
-        <v>34.7</v>
-      </c>
-      <c r="E7" s="2">
-        <v>26.5</v>
-      </c>
-      <c r="F7" s="2">
-        <v>24.1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>13.1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>31.1</v>
       </c>
     </row>
   </sheetData>
@@ -2471,31 +2291,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2">
@@ -2641,38 +2461,6 @@
       </c>
       <c r="I6" s="1">
         <v>5013.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>121.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10.7</v>
-      </c>
-      <c r="D7" s="1">
-        <v>9.1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>15.7</v>
-      </c>
-      <c r="F7" s="1">
-        <v>24.8</v>
-      </c>
-      <c r="G7" s="1">
-        <v>36.3</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="I7" s="1">
-        <v>4484.0</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2692,31 +2480,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2">
@@ -2866,7 +2654,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1">
         <v>197.0</v>
@@ -2895,13 +2683,13 @@
     </row>
     <row r="11">
       <c r="H11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K11" s="1">
         <v>4.0</v>
@@ -2912,13 +2700,13 @@
     </row>
     <row r="12">
       <c r="H12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12" s="1">
         <v>4.0</v>
@@ -2929,13 +2717,13 @@
     </row>
     <row r="13">
       <c r="H13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K13" s="1">
         <v>4.0</v>
@@ -2946,13 +2734,13 @@
     </row>
     <row r="14">
       <c r="H14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K14" s="1">
         <v>4.0</v>
@@ -2963,36 +2751,19 @@
     </row>
     <row r="15">
       <c r="H15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K15" s="1">
         <v>4.0</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="H16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3012,31 +2783,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2">
@@ -3186,7 +2957,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1">
         <v>297.0</v>
@@ -3215,34 +2986,28 @@
     </row>
     <row r="11">
       <c r="I11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="I12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="I13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="I14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="I15" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="I16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L16" s="1"/>
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3261,31 +3026,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2">
@@ -3317,7 +3082,7 @@
         <v>3426.0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -3378,7 +3143,7 @@
         <v>2669.0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -3437,38 +3202,6 @@
       </c>
       <c r="I6" s="1">
         <v>2388.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>597.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>38.7</v>
-      </c>
-      <c r="D7" s="1">
-        <v>26.5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>12.6</v>
-      </c>
-      <c r="F7" s="1">
-        <v>12.2</v>
-      </c>
-      <c r="G7" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2698.0</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3488,31 +3221,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2">
@@ -3662,7 +3395,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1">
         <v>149.0</v>
@@ -3691,50 +3424,42 @@
     </row>
     <row r="11">
       <c r="I11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="I12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="I13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="I14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="I15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="I16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3754,7 +3479,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3834,20 +3559,6 @@
       </c>
       <c r="D6" s="1">
         <v>82.4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1504.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>26.1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>73.9</v>
       </c>
     </row>
   </sheetData>
@@ -3867,31 +3578,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2">
@@ -4041,7 +3752,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1">
         <v>363.0</v>
@@ -4070,34 +3781,28 @@
     </row>
     <row r="11">
       <c r="I11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="I12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="I13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="I14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="I15" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="I16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="1"/>
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4116,31 +3821,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2">
@@ -4286,35 +3991,6 @@
       </c>
       <c r="I6" s="2">
         <v>1688.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>174.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>54.0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>21.3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10.3</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2.3</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2129.0</v>
       </c>
     </row>
   </sheetData>
@@ -4334,31 +4010,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2">
@@ -4504,35 +4180,6 @@
       </c>
       <c r="I6" s="2">
         <v>2116.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>399.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>48.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>21.8</v>
-      </c>
-      <c r="E7" s="2">
-        <v>9.3</v>
-      </c>
-      <c r="F7" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="G7" s="2">
-        <v>9.3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2506.0</v>
       </c>
     </row>
   </sheetData>
@@ -4552,34 +4199,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -4740,38 +4387,6 @@
       </c>
       <c r="J6" s="1">
         <v>4.7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>22.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>31.8</v>
-      </c>
-      <c r="D7" s="2">
-        <v>13.6</v>
-      </c>
-      <c r="E7" s="2">
-        <v>13.6</v>
-      </c>
-      <c r="F7" s="2">
-        <v>13.7</v>
-      </c>
-      <c r="G7" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>18.2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.727</v>
-      </c>
-      <c r="J7" s="1">
-        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -4791,34 +4406,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -4979,38 +4594,6 @@
       </c>
       <c r="J6" s="1">
         <v>5.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>29.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>10.1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>20.9</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10.8</v>
-      </c>
-      <c r="F7" s="2">
-        <v>10.1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>26.4</v>
-      </c>
-      <c r="H7" s="2">
-        <v>21.7</v>
-      </c>
-      <c r="I7" s="3">
-        <v>51.9</v>
-      </c>
-      <c r="J7" s="1">
-        <v>6.3</v>
       </c>
     </row>
   </sheetData>
@@ -5030,34 +4613,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -5218,38 +4801,6 @@
       </c>
       <c r="J6" s="1">
         <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>32.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>12.5</v>
-      </c>
-      <c r="E7" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>34.4</v>
-      </c>
-      <c r="H7" s="2">
-        <v>31.3</v>
-      </c>
-      <c r="I7" s="3">
-        <v>34.300000000000004</v>
-      </c>
-      <c r="J7" s="1">
-        <v>4.7</v>
       </c>
     </row>
   </sheetData>
@@ -5269,34 +4820,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -5457,38 +5008,6 @@
       </c>
       <c r="J6" s="1">
         <v>11.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>154.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>11.7</v>
-      </c>
-      <c r="E7" s="2">
-        <v>15.6</v>
-      </c>
-      <c r="F7" s="2">
-        <v>11.7</v>
-      </c>
-      <c r="G7" s="2">
-        <v>35.1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="I7" s="3">
-        <v>47.4</v>
-      </c>
-      <c r="J7" s="1">
-        <v>6.1</v>
       </c>
     </row>
   </sheetData>
@@ -5508,34 +5027,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -5696,38 +5215,6 @@
       </c>
       <c r="J6" s="1">
         <v>11.6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>107.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>9.3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="F7" s="2">
-        <v>9.3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>51.4</v>
-      </c>
-      <c r="H7" s="2">
-        <v>19.6</v>
-      </c>
-      <c r="I7" s="3">
-        <v>28.999999999999996</v>
-      </c>
-      <c r="J7" s="1">
-        <v>6.7</v>
       </c>
     </row>
   </sheetData>
@@ -5747,34 +5234,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -5935,38 +5422,6 @@
       </c>
       <c r="J6" s="1">
         <v>11.1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>243.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="E7" s="2">
-        <v>11.1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>14.8</v>
-      </c>
-      <c r="G7" s="2">
-        <v>43.2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>14.8</v>
-      </c>
-      <c r="I7" s="3">
-        <v>42.0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>9.1</v>
       </c>
     </row>
   </sheetData>
@@ -5986,34 +5441,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -6174,38 +5629,6 @@
       </c>
       <c r="J6" s="1">
         <v>21.8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>36.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8.3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>11.1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>16.7</v>
-      </c>
-      <c r="F7" s="2">
-        <v>19.4</v>
-      </c>
-      <c r="G7" s="2">
-        <v>19.5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>25.0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>55.50000000000001</v>
-      </c>
-      <c r="J7" s="1">
-        <v>7.2</v>
       </c>
     </row>
   </sheetData>
@@ -6225,25 +5648,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -6359,29 +5782,6 @@
       </c>
       <c r="G6" s="2">
         <v>6.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>561.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>13.2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>34.3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>27.2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>17.4</v>
-      </c>
-      <c r="G7" s="2">
-        <v>7.8</v>
       </c>
     </row>
   </sheetData>
@@ -6401,34 +5801,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -6589,38 +5989,6 @@
       </c>
       <c r="J6" s="1">
         <v>4.4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>206.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8.7</v>
-      </c>
-      <c r="D7" s="2">
-        <v>20.9</v>
-      </c>
-      <c r="E7" s="2">
-        <v>24.7</v>
-      </c>
-      <c r="F7" s="2">
-        <v>19.9</v>
-      </c>
-      <c r="G7" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>9.2</v>
-      </c>
-      <c r="I7" s="3">
-        <v>74.3</v>
-      </c>
-      <c r="J7" s="1">
-        <v>6.4</v>
       </c>
     </row>
   </sheetData>
@@ -6640,34 +6008,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -6828,38 +6196,6 @@
       </c>
       <c r="J6" s="1">
         <v>999.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>25.0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>60.0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2.4</v>
       </c>
     </row>
   </sheetData>
@@ -6879,34 +6215,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -7067,38 +6403,6 @@
       </c>
       <c r="J6" s="1">
         <v>3.4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>92.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>14.1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>21.7</v>
-      </c>
-      <c r="E7" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>13.1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>15.2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>10.9</v>
-      </c>
-      <c r="I7" s="1">
-        <v>73.9</v>
-      </c>
-      <c r="J7" s="1">
-        <v>4.2</v>
       </c>
     </row>
   </sheetData>
@@ -7118,34 +6422,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -7306,38 +6610,6 @@
       </c>
       <c r="J6" s="1">
         <v>3.3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>54.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>11.1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>16.7</v>
-      </c>
-      <c r="F7" s="2">
-        <v>11.1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>25.9</v>
-      </c>
-      <c r="H7" s="2">
-        <v>22.3</v>
-      </c>
-      <c r="I7" s="3">
-        <v>51.800000000000004</v>
-      </c>
-      <c r="J7" s="1">
-        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -7357,34 +6629,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -7545,38 +6817,6 @@
       </c>
       <c r="J6" s="1">
         <v>5.8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>107.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>13.1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>11.2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>18.7</v>
-      </c>
-      <c r="F7" s="1">
-        <v>14.9</v>
-      </c>
-      <c r="G7" s="1">
-        <v>27.1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>57.9</v>
-      </c>
-      <c r="J7" s="1">
-        <v>6.0</v>
       </c>
     </row>
   </sheetData>
@@ -7596,34 +6836,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -7784,38 +7024,6 @@
       </c>
       <c r="J6" s="1">
         <v>5.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>39.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5.1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>15.4</v>
-      </c>
-      <c r="E7" s="2">
-        <v>12.8</v>
-      </c>
-      <c r="F7" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="G7" s="2">
-        <v>30.8</v>
-      </c>
-      <c r="H7" s="2">
-        <v>28.2</v>
-      </c>
-      <c r="I7" s="3">
-        <v>41.0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>5.8</v>
       </c>
     </row>
   </sheetData>
@@ -7835,34 +7043,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -8023,38 +7231,6 @@
       </c>
       <c r="J6" s="1">
         <v>9.4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>327.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>10.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>12.5</v>
-      </c>
-      <c r="E7" s="2">
-        <v>13.8</v>
-      </c>
-      <c r="F7" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="G7" s="2">
-        <v>33.0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>16.8</v>
-      </c>
-      <c r="I7" s="3">
-        <v>50.1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>7.1</v>
       </c>
     </row>
   </sheetData>
@@ -8074,34 +7250,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -8262,38 +7438,6 @@
       </c>
       <c r="J6" s="1">
         <v>8.1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>230.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>7.8</v>
-      </c>
-      <c r="D7" s="2">
-        <v>9.6</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>53.5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>33.5</v>
-      </c>
-      <c r="J7" s="1">
-        <v>5.6</v>
       </c>
     </row>
   </sheetData>
@@ -8313,34 +7457,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -8501,38 +7645,6 @@
       </c>
       <c r="J6" s="1">
         <v>7.1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>543.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>8.8</v>
-      </c>
-      <c r="D7" s="1">
-        <v>8.7</v>
-      </c>
-      <c r="E7" s="1">
-        <v>9.2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>10.7</v>
-      </c>
-      <c r="G7" s="1">
-        <v>44.4</v>
-      </c>
-      <c r="H7" s="1">
-        <v>18.2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>37.4</v>
-      </c>
-      <c r="J7" s="1">
-        <v>6.7</v>
       </c>
     </row>
   </sheetData>
@@ -8552,34 +7664,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -8740,38 +7852,6 @@
       </c>
       <c r="J6" s="1">
         <v>11.4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>82.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4.9</v>
-      </c>
-      <c r="E7" s="2">
-        <v>15.8</v>
-      </c>
-      <c r="F7" s="2">
-        <v>9.8</v>
-      </c>
-      <c r="G7" s="2">
-        <v>39.0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>21.9</v>
-      </c>
-      <c r="I7" s="3">
-        <v>39.0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>8.2</v>
       </c>
     </row>
   </sheetData>
@@ -8791,25 +7871,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -8925,29 +8005,6 @@
       </c>
       <c r="G6" s="2">
         <v>20.3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1504.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="D7" s="2">
-        <v>23.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>27.7</v>
-      </c>
-      <c r="F7" s="2">
-        <v>22.8</v>
-      </c>
-      <c r="G7" s="2">
-        <v>17.9</v>
       </c>
     </row>
   </sheetData>
@@ -8967,34 +8024,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -9155,38 +8212,6 @@
       </c>
       <c r="J6" s="1">
         <v>5.7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>498.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>12.4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="G7" s="1">
-        <v>47.4</v>
-      </c>
-      <c r="H7" s="1">
-        <v>17.3</v>
-      </c>
-      <c r="I7" s="1">
-        <v>35.3</v>
-      </c>
-      <c r="J7" s="1">
-        <v>5.5</v>
       </c>
     </row>
   </sheetData>
@@ -9206,34 +8231,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -9394,38 +8419,6 @@
       </c>
       <c r="J6" s="1">
         <v>8.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>154.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>10.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>53.3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>20.8</v>
-      </c>
-      <c r="I7" s="3">
-        <v>26.0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>5.2</v>
       </c>
     </row>
   </sheetData>
@@ -9445,34 +8438,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -9633,38 +8626,6 @@
       </c>
       <c r="J6" s="1">
         <v>7.8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>416.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>9.6</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>12.3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>52.9</v>
-      </c>
-      <c r="H7" s="1">
-        <v>14.9</v>
-      </c>
-      <c r="I7" s="1">
-        <v>32.2</v>
-      </c>
-      <c r="J7" s="1">
-        <v>8.1</v>
       </c>
     </row>
   </sheetData>
@@ -9684,34 +8645,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -9872,38 +8833,6 @@
       </c>
       <c r="J6" s="1">
         <v>1.3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>66.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>15.1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>37.9</v>
-      </c>
-      <c r="H7" s="2">
-        <v>27.3</v>
-      </c>
-      <c r="I7" s="3">
-        <v>34.8</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2.3</v>
       </c>
     </row>
   </sheetData>
@@ -9923,34 +8852,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -10111,38 +9040,6 @@
       </c>
       <c r="J6" s="1">
         <v>11.1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>119.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>9.2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10.9</v>
-      </c>
-      <c r="E7" s="1">
-        <v>11.8</v>
-      </c>
-      <c r="F7" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>38.7</v>
-      </c>
-      <c r="H7" s="1">
-        <v>15.1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>46.2</v>
-      </c>
-      <c r="J7" s="1">
-        <v>6.4</v>
       </c>
     </row>
   </sheetData>
@@ -10162,31 +9059,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2">
@@ -10332,35 +9229,6 @@
       </c>
       <c r="I6" s="2">
         <v>2256.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>345.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>39.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>16.2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>14.8</v>
-      </c>
-      <c r="F7" s="2">
-        <v>10.1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>13.3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2550.0</v>
       </c>
     </row>
   </sheetData>
@@ -10380,31 +9248,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2">
@@ -10550,35 +9418,6 @@
       </c>
       <c r="I6" s="2">
         <v>3480.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>879.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>20.6</v>
-      </c>
-      <c r="D7" s="2">
-        <v>16.3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10.1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>17.9</v>
-      </c>
-      <c r="G7" s="2">
-        <v>23.3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>11.8</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4142.0</v>
       </c>
     </row>
   </sheetData>
@@ -10598,31 +9437,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2">
@@ -10768,35 +9607,6 @@
       </c>
       <c r="I6" s="2">
         <v>2985.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>559.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>22.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>12.3</v>
-      </c>
-      <c r="F7" s="2">
-        <v>17.9</v>
-      </c>
-      <c r="G7" s="2">
-        <v>19.6</v>
-      </c>
-      <c r="H7" s="2">
-        <v>10.7</v>
-      </c>
-      <c r="I7" s="2">
-        <v>3559.0</v>
       </c>
     </row>
   </sheetData>
@@ -10816,31 +9626,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2">
@@ -10986,35 +9796,6 @@
       </c>
       <c r="I6" s="2">
         <v>4420.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1499.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>15.3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>15.3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>9.7</v>
-      </c>
-      <c r="F7" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="G7" s="2">
-        <v>25.3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4928.0</v>
       </c>
     </row>
   </sheetData>
@@ -11034,25 +9815,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2">
@@ -11168,29 +9949,6 @@
       </c>
       <c r="G6" s="2">
         <v>9.6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>24938.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>58.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>19.7</v>
-      </c>
-      <c r="E7" s="2">
-        <v>7.8</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>32.5</v>
       </c>
     </row>
   </sheetData>
@@ -11210,37 +9968,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -11416,41 +10174,6 @@
       </c>
       <c r="K6" s="2">
         <v>5.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>80.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>46.2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>18.7</v>
-      </c>
-      <c r="H7" s="2">
-        <v>23.8</v>
-      </c>
-      <c r="I7" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="K7" s="2">
-        <v>3.8</v>
       </c>
     </row>
   </sheetData>
@@ -11470,25 +10193,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2">
@@ -11604,29 +10327,6 @@
       </c>
       <c r="G6" s="2">
         <v>14.2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>25062.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>47.0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>24.1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>25.1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>15.6</v>
-      </c>
-      <c r="G7" s="2">
-        <v>33.2</v>
       </c>
     </row>
   </sheetData>
@@ -11646,25 +10346,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2">
@@ -11780,29 +10480,6 @@
       </c>
       <c r="G6" s="2">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1948.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>49.8</v>
-      </c>
-      <c r="D7" s="2">
-        <v>43.8</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -11822,25 +10499,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2">
@@ -11956,29 +10633,6 @@
       </c>
       <c r="G6" s="2">
         <v>9.4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6287.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>37.6</v>
-      </c>
-      <c r="D7" s="2">
-        <v>40.2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="F7" s="2">
-        <v>9.3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5.6</v>
       </c>
     </row>
   </sheetData>
@@ -11998,25 +10652,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2">
@@ -12132,29 +10786,6 @@
       </c>
       <c r="G6" s="2">
         <v>25.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>24938.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>22.9</v>
-      </c>
-      <c r="E7" s="2">
-        <v>14.6</v>
-      </c>
-      <c r="F7" s="2">
-        <v>22.4</v>
-      </c>
-      <c r="G7" s="2">
-        <v>31.7</v>
       </c>
     </row>
   </sheetData>
@@ -12174,25 +10805,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2">
@@ -12308,29 +10939,6 @@
       </c>
       <c r="G6" s="2">
         <v>26.1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>25062.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>14.7</v>
-      </c>
-      <c r="D7" s="2">
-        <v>25.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>17.7</v>
-      </c>
-      <c r="F7" s="2">
-        <v>16.7</v>
-      </c>
-      <c r="G7" s="2">
-        <v>26.0</v>
       </c>
     </row>
   </sheetData>
@@ -12350,61 +10958,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="R1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -12700,65 +11308,6 @@
       </c>
       <c r="S6" s="1">
         <v>73.9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>24938.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4.9</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4.6</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="S7" s="1">
-        <v>79.0</v>
       </c>
     </row>
   </sheetData>
@@ -12778,61 +11327,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -13128,65 +11677,6 @@
       </c>
       <c r="S6" s="1">
         <v>75.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>25062.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>6.7</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="K7" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="L7" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="S7" s="1">
-        <v>74.6</v>
       </c>
     </row>
   </sheetData>
@@ -13206,61 +11696,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -13556,65 +12046,6 @@
       </c>
       <c r="S6" s="2">
         <v>60.3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>24938.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>13.9</v>
-      </c>
-      <c r="D7" s="2">
-        <v>11.3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10.9</v>
-      </c>
-      <c r="F7" s="2">
-        <v>10.2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="H7" s="2">
-        <v>9.6</v>
-      </c>
-      <c r="I7" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>7.3</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="L7" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="M7" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="N7" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="O7" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="P7" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>4.4</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="S7" s="2">
-        <v>61.0</v>
       </c>
     </row>
   </sheetData>
@@ -13634,61 +12065,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -13984,65 +12415,6 @@
       </c>
       <c r="S6" s="2">
         <v>74.4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>25062.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>8.7</v>
-      </c>
-      <c r="E7" s="2">
-        <v>7.9</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="J7" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="K7" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="L7" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="M7" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="N7" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="P7" s="2">
-        <v>4.6</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>1.1</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="S7" s="2">
-        <v>69.1</v>
       </c>
     </row>
   </sheetData>
@@ -14062,31 +12434,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2">
@@ -14232,35 +12604,6 @@
       </c>
       <c r="I6" s="2">
         <v>5.7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>24938.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="D7" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="E7" s="2">
-        <v>6.8</v>
-      </c>
-      <c r="F7" s="2">
-        <v>19.5</v>
-      </c>
-      <c r="G7" s="2">
-        <v>54.5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>8.7</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4.7</v>
       </c>
     </row>
   </sheetData>
@@ -14280,37 +12623,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -14485,41 +12828,6 @@
         <v>6.1</v>
       </c>
       <c r="K6" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>197.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>58.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>33.5</v>
-      </c>
-      <c r="E7" s="2">
-        <v>17.8</v>
-      </c>
-      <c r="F7" s="2">
-        <v>17.8</v>
-      </c>
-      <c r="G7" s="2">
-        <v>19.3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>16.8</v>
-      </c>
-      <c r="I7" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="K7" s="2">
         <v>3.0</v>
       </c>
     </row>
@@ -14540,31 +12848,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2">
@@ -14710,35 +13018,6 @@
       </c>
       <c r="I6" s="2">
         <v>5.8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>25062.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>16.8</v>
-      </c>
-      <c r="E7" s="2">
-        <v>12.3</v>
-      </c>
-      <c r="F7" s="2">
-        <v>23.6</v>
-      </c>
-      <c r="G7" s="2">
-        <v>27.4</v>
-      </c>
-      <c r="H7" s="2">
-        <v>18.9</v>
-      </c>
-      <c r="I7" s="2">
-        <v>5.6</v>
       </c>
     </row>
   </sheetData>
@@ -14758,31 +13037,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2">
@@ -14928,35 +13207,6 @@
       </c>
       <c r="I6" s="2">
         <v>5.2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>561.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="D7" s="2">
-        <v>8.9</v>
-      </c>
-      <c r="E7" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>15.3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>53.5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>12.5</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4.5</v>
       </c>
     </row>
   </sheetData>
@@ -14976,31 +13226,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2">
@@ -15146,35 +13396,6 @@
       </c>
       <c r="I6" s="2">
         <v>5.9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1504.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>14.4</v>
-      </c>
-      <c r="F7" s="2">
-        <v>23.9</v>
-      </c>
-      <c r="G7" s="2">
-        <v>23.1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>17.7</v>
-      </c>
-      <c r="I7" s="2">
-        <v>6.1</v>
       </c>
     </row>
   </sheetData>
@@ -15194,61 +13415,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -15544,65 +13765,6 @@
       </c>
       <c r="S6" s="2">
         <v>26.2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>561.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>40.9</v>
-      </c>
-      <c r="D7" s="2">
-        <v>14.6</v>
-      </c>
-      <c r="E7" s="2">
-        <v>27.4</v>
-      </c>
-      <c r="F7" s="2">
-        <v>30.4</v>
-      </c>
-      <c r="G7" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="H7" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="J7" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="K7" s="2">
-        <v>11.7</v>
-      </c>
-      <c r="L7" s="2">
-        <v>14.9</v>
-      </c>
-      <c r="M7" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="N7" s="2">
-        <v>9.6</v>
-      </c>
-      <c r="O7" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="P7" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="R7" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="S7" s="2">
-        <v>27.4</v>
       </c>
     </row>
   </sheetData>
@@ -15622,61 +13784,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -15972,65 +14134,6 @@
       </c>
       <c r="S6" s="2">
         <v>29.8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1504.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>36.1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>33.1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>27.7</v>
-      </c>
-      <c r="F7" s="2">
-        <v>16.4</v>
-      </c>
-      <c r="G7" s="2">
-        <v>21.8</v>
-      </c>
-      <c r="H7" s="2">
-        <v>16.2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>13.7</v>
-      </c>
-      <c r="J7" s="2">
-        <v>10.2</v>
-      </c>
-      <c r="K7" s="2">
-        <v>7.9</v>
-      </c>
-      <c r="L7" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="M7" s="2">
-        <v>8.2</v>
-      </c>
-      <c r="N7" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="O7" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="P7" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="S7" s="2">
-        <v>29.2</v>
       </c>
     </row>
   </sheetData>
@@ -16050,61 +14153,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -16400,65 +14503,6 @@
       </c>
       <c r="S6" s="1">
         <v>37.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>561.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>24.2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>21.5</v>
-      </c>
-      <c r="E7" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="F7" s="2">
-        <v>23.8</v>
-      </c>
-      <c r="G7" s="2">
-        <v>15.8</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2.3</v>
-      </c>
-      <c r="J7" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="K7" s="2">
-        <v>8.2</v>
-      </c>
-      <c r="L7" s="2">
-        <v>4.4</v>
-      </c>
-      <c r="M7" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="N7" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="P7" s="2">
-        <v>2.3</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="S7" s="1">
-        <v>38.4</v>
       </c>
     </row>
   </sheetData>
@@ -16478,61 +14522,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -16828,65 +14872,6 @@
       </c>
       <c r="S6" s="2">
         <v>45.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1504.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>23.0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>19.4</v>
-      </c>
-      <c r="E7" s="2">
-        <v>21.4</v>
-      </c>
-      <c r="F7" s="2">
-        <v>11.4</v>
-      </c>
-      <c r="G7" s="2">
-        <v>12.5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>11.9</v>
-      </c>
-      <c r="I7" s="2">
-        <v>8.8</v>
-      </c>
-      <c r="J7" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="K7" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="L7" s="2">
-        <v>4.1</v>
-      </c>
-      <c r="M7" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="N7" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="O7" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="P7" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="S7" s="2">
-        <v>41.3</v>
       </c>
     </row>
   </sheetData>
@@ -16906,61 +14891,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -17256,65 +15241,6 @@
       </c>
       <c r="S6" s="1">
         <v>26.8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>561.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>29.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>21.2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>13.9</v>
-      </c>
-      <c r="F7" s="2">
-        <v>20.5</v>
-      </c>
-      <c r="G7" s="2">
-        <v>21.2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>11.6</v>
-      </c>
-      <c r="I7" s="2">
-        <v>20.1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>21.4</v>
-      </c>
-      <c r="K7" s="2">
-        <v>8.9</v>
-      </c>
-      <c r="L7" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="M7" s="2">
-        <v>13.7</v>
-      </c>
-      <c r="N7" s="2">
-        <v>10.1</v>
-      </c>
-      <c r="O7" s="2">
-        <v>9.6</v>
-      </c>
-      <c r="P7" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>11.9</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S7" s="1">
-        <v>25.8</v>
       </c>
     </row>
   </sheetData>
@@ -17334,61 +15260,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -17684,65 +15610,6 @@
       </c>
       <c r="S6" s="1">
         <v>47.4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1504.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>24.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>21.8</v>
-      </c>
-      <c r="E7" s="2">
-        <v>22.7</v>
-      </c>
-      <c r="F7" s="2">
-        <v>14.9</v>
-      </c>
-      <c r="G7" s="2">
-        <v>14.6</v>
-      </c>
-      <c r="H7" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="I7" s="2">
-        <v>11.4</v>
-      </c>
-      <c r="J7" s="2">
-        <v>8.7</v>
-      </c>
-      <c r="K7" s="2">
-        <v>12.8</v>
-      </c>
-      <c r="L7" s="2">
-        <v>11.8</v>
-      </c>
-      <c r="M7" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="N7" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>6.7</v>
-      </c>
-      <c r="P7" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="S7" s="1">
-        <v>38.5</v>
       </c>
     </row>
   </sheetData>
@@ -17762,43 +15629,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -18003,47 +15870,6 @@
         <v>0.0</v>
       </c>
       <c r="M6" s="2">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>142.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>35.9</v>
-      </c>
-      <c r="D7" s="2">
-        <v>41.5</v>
-      </c>
-      <c r="E7" s="2">
-        <v>27.5</v>
-      </c>
-      <c r="F7" s="2">
-        <v>28.8</v>
-      </c>
-      <c r="G7" s="2">
-        <v>29.6</v>
-      </c>
-      <c r="H7" s="2">
-        <v>26.8</v>
-      </c>
-      <c r="I7" s="2">
-        <v>20.4</v>
-      </c>
-      <c r="J7" s="2">
-        <v>13.4</v>
-      </c>
-      <c r="K7" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="M7" s="2">
         <v>8.5</v>
       </c>
     </row>
@@ -18064,43 +15890,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -18306,47 +16132,6 @@
       </c>
       <c r="M6" s="2">
         <v>6.1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>612.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>54.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>38.7</v>
-      </c>
-      <c r="E7" s="2">
-        <v>26.1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>24.3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>17.8</v>
-      </c>
-      <c r="H7" s="2">
-        <v>11.4</v>
-      </c>
-      <c r="I7" s="2">
-        <v>11.8</v>
-      </c>
-      <c r="J7" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="K7" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="M7" s="2">
-        <v>6.9</v>
       </c>
     </row>
   </sheetData>
@@ -18366,43 +16151,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -18608,47 +16393,6 @@
       </c>
       <c r="M6" s="2">
         <v>53.2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>142.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>16.2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>16.9</v>
-      </c>
-      <c r="E7" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="F7" s="2">
-        <v>16.9</v>
-      </c>
-      <c r="G7" s="2">
-        <v>12.7</v>
-      </c>
-      <c r="H7" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="J7" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="K7" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="M7" s="2">
-        <v>46.5</v>
       </c>
     </row>
   </sheetData>
